--- a/function/LET.xlsx
+++ b/function/LET.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitclone\excel\function\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\excel\function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FF60B9-8E4C-4F72-AB9A-79A6F0B694B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13FF598-E762-4028-9FCB-C6FF04AA8457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDEF6A49-7B4E-4E8F-953B-CEE18612E3CA}"/>
+    <workbookView xWindow="1200" yWindow="315" windowWidth="25335" windowHeight="14130" activeTab="1" xr2:uid="{DDEF6A49-7B4E-4E8F-953B-CEE18612E3CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>↑超えるセル</t>
     <rPh sb="1" eb="2">
@@ -79,6 +80,21 @@
       <t>チ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
+    <t>列4</t>
+  </si>
+  <si>
+    <t>列5</t>
   </si>
 </sst>
 </file>
@@ -148,10 +164,24 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34BB6BEB-D2FD-48A9-B5E7-B429DB1DED6E}" name="Table1" displayName="Table1" ref="A2:E11" totalsRowShown="0">
+  <autoFilter ref="A2:E11" xr:uid="{34BB6BEB-D2FD-48A9-B5E7-B429DB1DED6E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2FCFF620-1166-4145-B65B-D7B1F11843ED}" name="列1"/>
+    <tableColumn id="2" xr3:uid="{394BF67D-2FAF-4B50-98B3-315305B821B2}" name="列2"/>
+    <tableColumn id="3" xr3:uid="{C673D214-25DB-4DAC-B3D0-FC0E3A68D9D5}" name="列3"/>
+    <tableColumn id="4" xr3:uid="{455A94E7-F1AA-4C7E-A7E6-6AE2F5F2684E}" name="列4"/>
+    <tableColumn id="5" xr3:uid="{9404BEA1-8B89-4A7E-A74B-70885AB5742C}" name="列5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -189,7 +219,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -295,7 +325,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -437,7 +467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -447,7 +477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86178D8D-F69C-4D9F-9329-8560B3C586C6}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -575,4 +605,62 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04894923-F756-4D98-960A-87B257001569}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="str" cm="1">
+        <f t="array" ref="A1">_xlfn.LET(
+  _xlpm.H, Table1[#Headers],
+  _xlpm.D, Table1[],
+  _xlpm.esc, _xlfn.LAMBDA(_xlpm.x, SUBSTITUTE(SUBSTITUTE(_xlpm.x, "|", "\|"), CHAR(10), "&lt;br&gt;")),
+  _xlpm.headerLine, "| " &amp; _xlfn.TEXTJOIN(" | ", FALSE, _xlfn.MAP(_xlpm.H, _xlpm.esc)) &amp; " |",
+  _xlpm.sepLine, "|" &amp; _xlfn.TEXTJOIN("|", FALSE, REPT("---", COLUMNS(_xlpm.H))) &amp; "|",
+  _xlpm.bodyLines, IF(ROWS(_xlpm.D)=0, "", _xlfn.BYROW(_xlpm.D, _xlfn.LAMBDA(_xlpm.r, "| " &amp; _xlfn.TEXTJOIN(" | ", FALSE, _xlfn.MAP(_xlpm.r, _xlpm.esc)) &amp; " |"))),
+  _xlfn.TEXTJOIN(CHAR(10), TRUE, _xlpm.headerLine, _xlpm.sepLine, _xlpm.bodyLines)
+)</f>
+        <v>| 列1 | 列2 | 列3 | 列4 | 列5 |
+|---------------|
+|  |  |  |  |  |
+|  |  |  |  |  |
+|  |  |  |  |  |
+|  |  |  |  |  |
+|  |  |  |  |  |
+|  |  |  |  |  |
+|  |  |  |  |  |
+|  |  |  |  |  |
+|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>